--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -916,7 +916,7 @@
         <v>115000000</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9400000000000001</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>15320000</v>
@@ -1157,7 +1157,7 @@
         <v>33000000</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>360000</v>
@@ -1439,7 +1439,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>260000</v>
@@ -1474,7 +1474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1515,27 +1515,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9600000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1545,7 +1545,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1555,7 +1555,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1565,7 +1565,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1575,7 +1575,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1585,37 +1585,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9600000</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1625,7 +1625,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1635,7 +1635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1645,7 +1645,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1655,7 +1655,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1665,7 +1665,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1675,57 +1675,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7007142.857142857</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>5720000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1735,7 +1735,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1745,7 +1745,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1755,7 +1755,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1765,150 +1765,60 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7007142.857142857</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5720000</v>
+        <v>9600000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>360000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>9047142.857142858</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-5000000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>9600000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>9047142.857142858</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
         <v>18647142.85714286</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -882,44 +882,100 @@
         <v>21000000</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2100000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>596</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>bảo trân</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>118000000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>118000000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>115000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15320000</v>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>120000000</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>120000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>117000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16570000</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,57 +1551,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>700000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Lương công tác tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v/>
+        <v>350357.1428571428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9600000</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>10650000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1555,7 +1611,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1565,7 +1621,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1575,7 +1631,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1585,7 +1641,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1595,27 +1651,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1625,7 +1681,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1635,7 +1691,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1645,17 +1701,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1665,7 +1721,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1675,7 +1731,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1685,117 +1741,117 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7007142.857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5720000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>7357500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>260000</v>
+        <v>5920000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-5000000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1805,21 +1861,81 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9047142.857142858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-10000000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11035357.14285714</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4632500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>18647142.85714286</v>
+      <c r="B40" t="n">
+        <v>15667857.14285714</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -1530,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,47 +1561,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương công tác tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35000</v>
+        <v>350357.1428571428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương công tác tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350357.1428571428</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v/>
+        <v>10650000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1611,7 +1611,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1621,7 +1621,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1631,7 +1631,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1641,7 +1641,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1651,27 +1651,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1681,17 +1681,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1701,17 +1701,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1721,7 +1721,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1731,7 +1731,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1741,7 +1741,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1751,7 +1751,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1761,87 +1761,87 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>7357500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>735000</v>
+        <v>5920000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7357500</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5920000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1851,7 +1851,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1861,81 +1861,61 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-10000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>260000</v>
+        <v>11000357.14285714</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11035357.14285714</v>
+        <v>4632500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4632500</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>15667857.14285714</v>
+        <v>15632857.14285714</v>
       </c>
     </row>
   </sheetData>
